--- a/biology/Médecine/Pompe_calcium/Pompe_calcium.xlsx
+++ b/biology/Médecine/Pompe_calcium/Pompe_calcium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ca2+-ATPase est une protéine transmembranaire retrouvée dans la plupart des membranes cellulaires des eucaryotes. 
 Elle fonctionne grâce à l'hydrolyse de l'ATP. 
@@ -515,7 +527,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'augmentation de calcium cytoplasmique active une grande variété de processus enzymatiques. C'est entre autres le signal qui stimule la contraction musculaire. 
 À l’état de repos, la concentration de Ca2+ près des fibres musculaires est très faible (de l'ordre de 0,1 micromole.L-1) et presque tous les ions calcium dans les muscles sont concentrés dans un réseau complexe de vésicules, le réticulum sarcoplasmique. 
@@ -552,7 +566,9 @@
           <t>Régulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pompes SERCA2a (présentes dans les fibres musculaires squelettiques lentes et les cardiomyocytes) sont inhibées par le phospholambane. Les pompes SERCA1 (dans les fibres musculaires rapides) ne le sont pas car le phospholambane n'est pas présent dans ces cellules. 
 </t>
